--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cyient Ltd/Pruned_Excel/Pruned_Cash-flow_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cyient Ltd/Pruned_Excel/Pruned_Cash-flow_combined.xlsx
@@ -817,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>249.1233333333333</v>
+        <v>249.12</v>
       </c>
       <c r="C13">
         <v>257.83</v>
@@ -904,7 +904,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>249.1233333333333</v>
+        <v>249.12</v>
       </c>
       <c r="C16">
         <v>228.1</v>
